--- a/teaching/traditional_assets/database/data/hong_kong/hong_kong_cable_tv.xlsx
+++ b/teaching/traditional_assets/database/data/hong_kong/hong_kong_cable_tv.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.18125</v>
+        <v>-0.11895</v>
       </c>
       <c r="G2">
-        <v>-0.256807012883517</v>
+        <v>-0.1683276450511945</v>
       </c>
       <c r="H2">
-        <v>-0.256807012883517</v>
+        <v>-0.1683276450511945</v>
       </c>
       <c r="I2">
-        <v>-0.3397301434078799</v>
+        <v>-0.2966297098978181</v>
       </c>
       <c r="J2">
-        <v>-0.3397301434078799</v>
+        <v>-0.2966297098978181</v>
       </c>
       <c r="K2">
-        <v>-58.78</v>
+        <v>-51.8</v>
       </c>
       <c r="L2">
-        <v>-0.3903572851640324</v>
+        <v>-0.3535836177474402</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>86.639</v>
+        <v>11.043</v>
       </c>
       <c r="V2">
-        <v>0.8469110459433039</v>
+        <v>0.06379549393414211</v>
       </c>
       <c r="W2">
-        <v>-0.06359977646178669</v>
+        <v>-0.07899345587104989</v>
       </c>
       <c r="X2">
-        <v>0.1134636008201547</v>
+        <v>0.08190709762347712</v>
       </c>
       <c r="Y2">
-        <v>-0.1770633772819414</v>
+        <v>-0.160900553494527</v>
       </c>
       <c r="Z2">
-        <v>0.9922910950835675</v>
+        <v>1.014421665829915</v>
       </c>
       <c r="AA2">
-        <v>-0.3870936924912547</v>
+        <v>-1.491027681759831</v>
       </c>
       <c r="AB2">
-        <v>0.06840882119705033</v>
+        <v>0.0551315477584931</v>
       </c>
       <c r="AC2">
-        <v>-0.455502513688305</v>
+        <v>-1.546159229518324</v>
       </c>
       <c r="AD2">
-        <v>141.9</v>
+        <v>107.29</v>
       </c>
       <c r="AE2">
-        <v>5.547824971792823</v>
+        <v>0.4562625001517545</v>
       </c>
       <c r="AF2">
-        <v>147.4478249717928</v>
+        <v>107.7462625001517</v>
       </c>
       <c r="AG2">
-        <v>60.80882497179284</v>
+        <v>96.70326250015174</v>
       </c>
       <c r="AH2">
-        <v>0.5903868231422875</v>
+        <v>0.3836485539845613</v>
       </c>
       <c r="AI2">
-        <v>0.6267765705781655</v>
+        <v>0.6926959270400126</v>
       </c>
       <c r="AJ2">
-        <v>0.3728113729119733</v>
+        <v>0.3584213978883867</v>
       </c>
       <c r="AK2">
-        <v>0.4091871729914751</v>
+        <v>0.6692116207414363</v>
       </c>
       <c r="AL2">
-        <v>5.1</v>
+        <v>7.18</v>
       </c>
       <c r="AM2">
-        <v>4.855</v>
+        <v>6.64</v>
       </c>
       <c r="AN2">
-        <v>-5.649560058924235</v>
+        <v>-5.735899492114407</v>
       </c>
       <c r="AO2">
-        <v>-10.46666666666667</v>
+        <v>-6.065459610027855</v>
       </c>
       <c r="AP2">
-        <v>-2.421022613042674</v>
+        <v>-5.169915129652591</v>
       </c>
       <c r="AQ2">
-        <v>-10.99485066941298</v>
+        <v>-6.558734939759036</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0825</v>
+        <v>-0.0679</v>
       </c>
       <c r="G3">
-        <v>-0.2552756977535738</v>
+        <v>-0.1558803061934586</v>
       </c>
       <c r="H3">
-        <v>-0.2552756977535738</v>
+        <v>-0.1558803061934586</v>
       </c>
       <c r="I3">
-        <v>-0.3367955535072913</v>
+        <v>-0.2881437195548389</v>
       </c>
       <c r="J3">
-        <v>-0.3367955535072913</v>
+        <v>-0.2881437195548389</v>
       </c>
       <c r="K3">
-        <v>-52.7</v>
+        <v>-46.9</v>
       </c>
       <c r="L3">
-        <v>-0.3587474472430225</v>
+        <v>-0.326374391092554</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>86.59999999999999</v>
+        <v>11</v>
       </c>
       <c r="V3">
-        <v>1.477815699658703</v>
+        <v>0.1896551724137931</v>
       </c>
       <c r="W3">
-        <v>-0.4488926746166951</v>
+        <v>-0.4428706326723323</v>
       </c>
       <c r="X3">
-        <v>0.1471391702383564</v>
+        <v>0.1102319145439667</v>
       </c>
       <c r="Y3">
-        <v>-0.5960318448550515</v>
+        <v>-0.553102547216299</v>
       </c>
       <c r="Z3">
-        <v>0.9930618570541273</v>
+        <v>1.000304459402514</v>
       </c>
       <c r="AA3">
-        <v>-0.3344588178135234</v>
+        <v>-0.2882314476195328</v>
       </c>
       <c r="AB3">
-        <v>0.07010126685231943</v>
+        <v>0.05365370849146734</v>
       </c>
       <c r="AC3">
-        <v>-0.4045600846658429</v>
+        <v>-0.3418851561110001</v>
       </c>
       <c r="AD3">
-        <v>123.9</v>
+        <v>98.5</v>
       </c>
       <c r="AE3">
-        <v>5.426334051105494</v>
+        <v>0.4562625001517545</v>
       </c>
       <c r="AF3">
-        <v>129.3263340511055</v>
+        <v>98.95626250015175</v>
       </c>
       <c r="AG3">
-        <v>42.72633405110551</v>
+        <v>87.95626250015175</v>
       </c>
       <c r="AH3">
-        <v>0.6881756870537151</v>
+        <v>0.6304703037896056</v>
       </c>
       <c r="AI3">
-        <v>0.5497953049041182</v>
+        <v>0.6233219461188635</v>
       </c>
       <c r="AJ3">
-        <v>0.4216705800246935</v>
+        <v>0.6026206823435226</v>
       </c>
       <c r="AK3">
-        <v>0.2874748564841407</v>
+        <v>0.5952794217440456</v>
       </c>
       <c r="AL3">
-        <v>2.35</v>
+        <v>6.05</v>
       </c>
       <c r="AM3">
-        <v>2.105</v>
+        <v>5.51</v>
       </c>
       <c r="AN3">
-        <v>-5.274584929757344</v>
+        <v>-5.823233816139521</v>
       </c>
       <c r="AO3">
-        <v>-21.95744680851064</v>
+        <v>-6.859504132231405</v>
       </c>
       <c r="AP3">
-        <v>-1.818915881273117</v>
+        <v>-5.199897280529219</v>
       </c>
       <c r="AQ3">
-        <v>-24.51306413301663</v>
+        <v>-7.531760435571688</v>
       </c>
     </row>
     <row r="4">
@@ -838,7 +838,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Code Agriculture (Holdings) Limited (SEHK:8153)</t>
+          <t>Farnova Group Holdings Limited (SEHK:8153)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -847,25 +847,25 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.28</v>
+        <v>-0.17</v>
       </c>
       <c r="G4">
-        <v>-0.3179347826086956</v>
+        <v>-0.8071428571428572</v>
       </c>
       <c r="H4">
-        <v>-0.3179347826086956</v>
+        <v>-0.8071428571428572</v>
       </c>
       <c r="I4">
-        <v>-0.4568745065590939</v>
+        <v>-0.7321428571428571</v>
       </c>
       <c r="J4">
-        <v>-0.4568745065590939</v>
+        <v>-0.7321428571428571</v>
       </c>
       <c r="K4">
-        <v>-6.08</v>
+        <v>-4.9</v>
       </c>
       <c r="L4">
-        <v>-1.652173913043478</v>
+        <v>-1.75</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -889,73 +889,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.039</v>
+        <v>0.043</v>
       </c>
       <c r="V4">
-        <v>0.0008924485125858123</v>
+        <v>0.0003735881841876629</v>
       </c>
       <c r="W4">
-        <v>0.3216931216931217</v>
+        <v>0.2848837209302326</v>
       </c>
       <c r="X4">
-        <v>0.07978803140195309</v>
+        <v>0.05358228070298751</v>
       </c>
       <c r="Y4">
-        <v>0.2419050902911686</v>
+        <v>0.2313014402272451</v>
       </c>
       <c r="Z4">
-        <v>0.962471227560406</v>
+        <v>3.679369250985542</v>
       </c>
       <c r="AA4">
-        <v>-0.4397285671689859</v>
+        <v>-2.693823915900129</v>
       </c>
       <c r="AB4">
-        <v>0.06671637554178124</v>
+        <v>0.05660938702551888</v>
       </c>
       <c r="AC4">
-        <v>-0.5064449427107671</v>
+        <v>-2.750433302925647</v>
       </c>
       <c r="AD4">
-        <v>18</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="AE4">
-        <v>0.1214909206873283</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>18.12149092068733</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="AG4">
-        <v>18.08249092068733</v>
+        <v>8.747</v>
       </c>
       <c r="AH4">
-        <v>0.2931260739721716</v>
+        <v>0.07095003632254419</v>
       </c>
       <c r="AI4">
-        <v>843.2161276074679</v>
+        <v>-2.738317757009345</v>
       </c>
       <c r="AJ4">
-        <v>0.2926798620648129</v>
+        <v>0.07062746776264262</v>
       </c>
       <c r="AK4">
-        <v>-1032.749386633828</v>
+        <v>-2.688902551490931</v>
       </c>
       <c r="AL4">
-        <v>2.75</v>
+        <v>1.13</v>
       </c>
       <c r="AM4">
-        <v>2.75</v>
+        <v>1.13</v>
       </c>
       <c r="AN4">
-        <v>-11.06330669944684</v>
+        <v>-4.910614525139664</v>
       </c>
       <c r="AO4">
-        <v>-0.6472727272727273</v>
+        <v>-1.814159292035398</v>
       </c>
       <c r="AP4">
-        <v>-11.11400794141815</v>
+        <v>-4.886592178770949</v>
       </c>
       <c r="AQ4">
-        <v>-0.6472727272727273</v>
+        <v>-1.814159292035398</v>
       </c>
     </row>
   </sheetData>
